--- a/biology/Botanique/Homoxylé/Homoxylé.xlsx
+++ b/biology/Botanique/Homoxylé/Homoxylé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Homoxyl%C3%A9</t>
+          <t>Homoxylé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homoxylé (du grec ancien ὁμός / homós, semblable et ξὐλον / xýlon, bois) se dit d’un bois dépourvu de fibres et formé en majeure partie de vaisseaux et de trachéides. Le bois homoxylé existe chez les Gymnospermes.
  Portail de la botanique   Portail de la biologie                    </t>
